--- a/passangers.xlsx
+++ b/passangers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ibacity-my.sharepoint.com/personal/fatimasadik_iba_edu_pk/Documents/Econometrics/Spring24_AE2/Econometrics_undergrad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1FBD98A-74DB-44B9-88AA-B72CAE4E979D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{C1FBD98A-74DB-44B9-88AA-B72CAE4E979D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0C16E94-263D-4EF4-B473-F6D5E22C84B3}"/>
   <bookViews>
     <workbookView xWindow="1044" yWindow="852" windowWidth="13440" windowHeight="11508" xr2:uid="{11D5795B-65B3-45B1-A0D6-DC465644AB1C}"/>
   </bookViews>
@@ -398,735 +398,1167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F840D79-5EB6-4AF2-9DAA-D378C3B29F5D}">
-  <dimension ref="B2:B146"/>
+  <dimension ref="A2:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>17</v>
+      </c>
       <c r="B19" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>18</v>
+      </c>
       <c r="B20" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>19</v>
+      </c>
       <c r="B21" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>20</v>
+      </c>
       <c r="B22" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>21</v>
+      </c>
       <c r="B23" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>22</v>
+      </c>
       <c r="B24" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>23</v>
+      </c>
       <c r="B25" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>24</v>
+      </c>
       <c r="B26" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>25</v>
+      </c>
       <c r="B27" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>26</v>
+      </c>
       <c r="B28" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>27</v>
+      </c>
       <c r="B29" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>28</v>
+      </c>
       <c r="B30" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>29</v>
+      </c>
       <c r="B31" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>30</v>
+      </c>
       <c r="B32" s="1">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>31</v>
+      </c>
       <c r="B33" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>32</v>
+      </c>
       <c r="B34" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>33</v>
+      </c>
       <c r="B35" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>34</v>
+      </c>
       <c r="B36" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>35</v>
+      </c>
       <c r="B37" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>36</v>
+      </c>
       <c r="B38" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>37</v>
+      </c>
       <c r="B39" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>38</v>
+      </c>
       <c r="B40" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>39</v>
+      </c>
       <c r="B41" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>40</v>
+      </c>
       <c r="B42" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>41</v>
+      </c>
       <c r="B43" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>42</v>
+      </c>
       <c r="B44" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>43</v>
+      </c>
       <c r="B45" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>44</v>
+      </c>
       <c r="B46" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>45</v>
+      </c>
       <c r="B47" s="1">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>46</v>
+      </c>
       <c r="B48" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>47</v>
+      </c>
       <c r="B49" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>48</v>
+      </c>
       <c r="B50" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>49</v>
+      </c>
       <c r="B51" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>50</v>
+      </c>
       <c r="B52" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>51</v>
+      </c>
       <c r="B53" s="1">
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>52</v>
+      </c>
       <c r="B54" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>53</v>
+      </c>
       <c r="B55" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>54</v>
+      </c>
       <c r="B56" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>55</v>
+      </c>
       <c r="B57" s="1">
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>56</v>
+      </c>
       <c r="B58" s="1">
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>57</v>
+      </c>
       <c r="B59" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>58</v>
+      </c>
       <c r="B60" s="1">
         <v>211</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>59</v>
+      </c>
       <c r="B61" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>60</v>
+      </c>
       <c r="B62" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>61</v>
+      </c>
       <c r="B63" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>62</v>
+      </c>
       <c r="B64" s="1">
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>63</v>
+      </c>
       <c r="B65" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>64</v>
+      </c>
       <c r="B66" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>65</v>
+      </c>
       <c r="B67" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>66</v>
+      </c>
       <c r="B68" s="1">
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>67</v>
+      </c>
       <c r="B69" s="1">
         <v>302</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>68</v>
+      </c>
       <c r="B70" s="1">
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>69</v>
+      </c>
       <c r="B71" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>70</v>
+      </c>
       <c r="B72" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>71</v>
+      </c>
       <c r="B73" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>72</v>
+      </c>
       <c r="B74" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>73</v>
+      </c>
       <c r="B75" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>74</v>
+      </c>
       <c r="B76" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>75</v>
+      </c>
       <c r="B77" s="1">
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>76</v>
+      </c>
       <c r="B78" s="1">
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>77</v>
+      </c>
       <c r="B79" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>78</v>
+      </c>
       <c r="B80" s="1">
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>79</v>
+      </c>
       <c r="B81" s="1">
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>80</v>
+      </c>
       <c r="B82" s="1">
         <v>347</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>81</v>
+      </c>
       <c r="B83" s="1">
         <v>312</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>82</v>
+      </c>
       <c r="B84" s="1">
         <v>274</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>83</v>
+      </c>
       <c r="B85" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>84</v>
+      </c>
       <c r="B86" s="1">
         <v>278</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>85</v>
+      </c>
       <c r="B87" s="1">
         <v>284</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>86</v>
+      </c>
       <c r="B88" s="1">
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>87</v>
+      </c>
       <c r="B89" s="1">
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>88</v>
+      </c>
       <c r="B90" s="1">
         <v>313</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>89</v>
+      </c>
       <c r="B91" s="1">
         <v>318</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>90</v>
+      </c>
       <c r="B92" s="1">
         <v>374</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>91</v>
+      </c>
       <c r="B93" s="1">
         <v>413</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>92</v>
+      </c>
       <c r="B94" s="1">
         <v>405</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>93</v>
+      </c>
       <c r="B95" s="1">
         <v>355</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>94</v>
+      </c>
       <c r="B96" s="1">
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>95</v>
+      </c>
       <c r="B97" s="1">
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>96</v>
+      </c>
       <c r="B98" s="1">
         <v>306</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>97</v>
+      </c>
       <c r="B99" s="1">
         <v>315</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>98</v>
+      </c>
       <c r="B100" s="1">
         <v>301</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>99</v>
+      </c>
       <c r="B101" s="1">
         <v>356</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>100</v>
+      </c>
       <c r="B102" s="1">
         <v>348</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>101</v>
+      </c>
       <c r="B103" s="1">
         <v>355</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>102</v>
+      </c>
       <c r="B104" s="1">
         <v>422</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>103</v>
+      </c>
       <c r="B105" s="1">
         <v>465</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>104</v>
+      </c>
       <c r="B106" s="1">
         <v>467</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>105</v>
+      </c>
       <c r="B107" s="1">
         <v>404</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>106</v>
+      </c>
       <c r="B108" s="1">
         <v>347</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>107</v>
+      </c>
       <c r="B109" s="1">
         <v>305</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>108</v>
+      </c>
       <c r="B110" s="1">
         <v>336</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>109</v>
+      </c>
       <c r="B111" s="1">
         <v>340</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>110</v>
+      </c>
       <c r="B112" s="1">
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>111</v>
+      </c>
       <c r="B113" s="1">
         <v>362</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>112</v>
+      </c>
       <c r="B114" s="1">
         <v>348</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>113</v>
+      </c>
       <c r="B115" s="1">
         <v>363</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>114</v>
+      </c>
       <c r="B116" s="1">
         <v>435</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>115</v>
+      </c>
       <c r="B117" s="1">
         <v>491</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>116</v>
+      </c>
       <c r="B118" s="1">
         <v>505</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>117</v>
+      </c>
       <c r="B119" s="1">
         <v>404</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>118</v>
+      </c>
       <c r="B120" s="1">
         <v>359</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>119</v>
+      </c>
       <c r="B121" s="1">
         <v>310</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>120</v>
+      </c>
       <c r="B122" s="1">
         <v>337</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>121</v>
+      </c>
       <c r="B123" s="1">
         <v>360</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>122</v>
+      </c>
       <c r="B124" s="1">
         <v>342</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>123</v>
+      </c>
       <c r="B125" s="1">
         <v>406</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>124</v>
+      </c>
       <c r="B126" s="1">
         <v>396</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>125</v>
+      </c>
       <c r="B127" s="1">
         <v>420</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>126</v>
+      </c>
       <c r="B128" s="1">
         <v>472</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>127</v>
+      </c>
       <c r="B129" s="1">
         <v>548</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>128</v>
+      </c>
       <c r="B130" s="1">
         <v>559</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>129</v>
+      </c>
       <c r="B131" s="1">
         <v>463</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>130</v>
+      </c>
       <c r="B132" s="1">
         <v>407</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>131</v>
+      </c>
       <c r="B133" s="1">
         <v>362</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>132</v>
+      </c>
       <c r="B134" s="1">
         <v>405</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>133</v>
+      </c>
       <c r="B135" s="1">
         <v>417</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>134</v>
+      </c>
       <c r="B136" s="1">
         <v>391</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>135</v>
+      </c>
       <c r="B137" s="1">
         <v>419</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>136</v>
+      </c>
       <c r="B138" s="1">
         <v>461</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>137</v>
+      </c>
       <c r="B139" s="1">
         <v>472</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>138</v>
+      </c>
       <c r="B140" s="1">
         <v>535</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>139</v>
+      </c>
       <c r="B141" s="1">
         <v>622</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>140</v>
+      </c>
       <c r="B142" s="1">
         <v>606</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>141</v>
+      </c>
       <c r="B143" s="1">
         <v>508</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>142</v>
+      </c>
       <c r="B144" s="1">
         <v>461</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>143</v>
+      </c>
       <c r="B145" s="1">
         <v>390</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>144</v>
+      </c>
       <c r="B146" s="1">
         <v>432</v>
       </c>
